--- a/assets/files/dados_gemelares.xlsx
+++ b/assets/files/dados_gemelares.xlsx
@@ -3,23 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="dados_caracterizacao" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="dicionario_caracterizacao" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="dados" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="dicionario" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">dados_caracterizacao!$A$1:$Z$997</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjL03ZHnDY4vPIPiG+VD0GU5/pG/A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mi8sk3vHdzqpY09OW5WVAWeFdQL7A=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -108,6 +106,12 @@
     <t>Identificação do paciente</t>
   </si>
   <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Progesterona</t>
+  </si>
+  <si>
     <t>Corionicidade</t>
   </si>
   <si>
@@ -153,6 +157,33 @@
     <t>Número de abortos</t>
   </si>
   <si>
+    <t>Indicador de antecedente pessoal</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
+  </si>
+  <si>
+    <t>Se fuma</t>
+  </si>
+  <si>
+    <t>Se bebe bebidas alcóolicas</t>
+  </si>
+  <si>
+    <t>Se usa drogas ilícitas</t>
+  </si>
+  <si>
+    <t>Idade gestacional da CTG (em semanas)</t>
+  </si>
+  <si>
+    <t>Medida do colo observada no momento da CTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de contrações </t>
+  </si>
+  <si>
     <t>Semanas da IG (idade gestacional) do parto</t>
   </si>
   <si>
@@ -167,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -197,6 +228,20 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -218,27 +263,121 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
@@ -246,43 +385,12 @@
       </left>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -301,22 +409,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -372,53 +469,107 @@
     <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -32923,13 +33074,6 @@
       <c r="Z997" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$997">
-    <sortState ref="A1:Z997">
-      <sortCondition ref="A1:A997"/>
-      <sortCondition descending="1" ref="T1:T997"/>
-      <sortCondition descending="1" ref="S1:S997"/>
-    </sortState>
-  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
@@ -32947,8 +33091,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.0"/>
-    <col customWidth="1" min="2" max="2" width="41.43"/>
+    <col customWidth="1" min="1" max="1" width="28.86"/>
+    <col customWidth="1" min="2" max="2" width="87.57"/>
     <col customWidth="1" min="3" max="12" width="9.14"/>
     <col customWidth="1" min="13" max="26" width="8.0"/>
   </cols>
@@ -33075,10 +33219,10 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -33106,15 +33250,15 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>22</v>
+      <c r="A6" s="22">
+        <v>1.0</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
@@ -33137,16 +33281,16 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>31</v>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="22">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="27"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -33169,16 +33313,16 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>32</v>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -33201,17 +33345,17 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>33</v>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -33233,17 +33377,17 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>34</v>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -33265,16 +33409,16 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>35</v>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -33298,16 +33442,16 @@
       <c r="Z11" s="14"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>36</v>
+      <c r="A12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -33331,15 +33475,15 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -33361,16 +33505,16 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>39</v>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="35"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -33393,12 +33537,12 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>40</v>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -33425,11 +33569,11 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="26" t="s">
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="14"/>
@@ -33458,15 +33602,15 @@
       <c r="Z16" s="14"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -33489,16 +33633,16 @@
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="29" t="s">
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -33522,16 +33666,16 @@
       <c r="Z18" s="14"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>10</v>
+      <c r="A19" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -33554,11 +33698,11 @@
       <c r="Z19" s="14"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>44</v>
+      <c r="A20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -33586,11 +33730,11 @@
       <c r="Z20" s="14"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>45</v>
+      <c r="A21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -33617,9 +33761,13 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -33645,9 +33793,13 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -33673,11 +33825,15 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -33701,9 +33857,13 @@
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -33729,9 +33889,13 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -33757,9 +33921,13 @@
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -33785,9 +33953,13 @@
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="41">
+        <v>0.0</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -33813,9 +33985,13 @@
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>50</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -33841,9 +34017,13 @@
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -33869,9 +34049,13 @@
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="A31" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -33897,9 +34081,13 @@
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="A32" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -33925,9 +34113,13 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -33953,9 +34145,13 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -33981,9 +34177,13 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="A35" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>52</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -34009,9 +34209,13 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -34037,9 +34241,13 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -34065,9 +34273,13 @@
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>55</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -34093,9 +34305,13 @@
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>56</v>
+      </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -34122,17 +34338,15 @@
       <c r="Z39" s="14"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
@@ -34150,8 +34364,6 @@
       <c r="Z40" s="14"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -34178,10 +34390,8 @@
       <c r="Z41" s="14"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -34206,8 +34416,6 @@
       <c r="Z42" s="14"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -34234,8 +34442,6 @@
       <c r="Z43" s="14"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -60777,258 +60983,6 @@
       <c r="Y991" s="14"/>
       <c r="Z991" s="14"/>
     </row>
-    <row r="992" ht="12.75" customHeight="1">
-      <c r="A992" s="14"/>
-      <c r="B992" s="14"/>
-      <c r="C992" s="14"/>
-      <c r="D992" s="14"/>
-      <c r="E992" s="14"/>
-      <c r="F992" s="14"/>
-      <c r="G992" s="14"/>
-      <c r="H992" s="14"/>
-      <c r="I992" s="14"/>
-      <c r="J992" s="14"/>
-      <c r="K992" s="14"/>
-      <c r="L992" s="14"/>
-      <c r="M992" s="14"/>
-      <c r="N992" s="14"/>
-      <c r="O992" s="14"/>
-      <c r="P992" s="14"/>
-      <c r="Q992" s="14"/>
-      <c r="R992" s="14"/>
-      <c r="S992" s="14"/>
-      <c r="T992" s="14"/>
-      <c r="U992" s="14"/>
-      <c r="V992" s="14"/>
-      <c r="W992" s="14"/>
-      <c r="X992" s="14"/>
-      <c r="Y992" s="14"/>
-      <c r="Z992" s="14"/>
-    </row>
-    <row r="993" ht="12.75" customHeight="1">
-      <c r="A993" s="14"/>
-      <c r="B993" s="14"/>
-      <c r="C993" s="14"/>
-      <c r="D993" s="14"/>
-      <c r="E993" s="14"/>
-      <c r="F993" s="14"/>
-      <c r="G993" s="14"/>
-      <c r="H993" s="14"/>
-      <c r="I993" s="14"/>
-      <c r="J993" s="14"/>
-      <c r="K993" s="14"/>
-      <c r="L993" s="14"/>
-      <c r="M993" s="14"/>
-      <c r="N993" s="14"/>
-      <c r="O993" s="14"/>
-      <c r="P993" s="14"/>
-      <c r="Q993" s="14"/>
-      <c r="R993" s="14"/>
-      <c r="S993" s="14"/>
-      <c r="T993" s="14"/>
-      <c r="U993" s="14"/>
-      <c r="V993" s="14"/>
-      <c r="W993" s="14"/>
-      <c r="X993" s="14"/>
-      <c r="Y993" s="14"/>
-      <c r="Z993" s="14"/>
-    </row>
-    <row r="994" ht="12.75" customHeight="1">
-      <c r="A994" s="14"/>
-      <c r="B994" s="14"/>
-      <c r="C994" s="14"/>
-      <c r="D994" s="14"/>
-      <c r="E994" s="14"/>
-      <c r="F994" s="14"/>
-      <c r="G994" s="14"/>
-      <c r="H994" s="14"/>
-      <c r="I994" s="14"/>
-      <c r="J994" s="14"/>
-      <c r="K994" s="14"/>
-      <c r="L994" s="14"/>
-      <c r="M994" s="14"/>
-      <c r="N994" s="14"/>
-      <c r="O994" s="14"/>
-      <c r="P994" s="14"/>
-      <c r="Q994" s="14"/>
-      <c r="R994" s="14"/>
-      <c r="S994" s="14"/>
-      <c r="T994" s="14"/>
-      <c r="U994" s="14"/>
-      <c r="V994" s="14"/>
-      <c r="W994" s="14"/>
-      <c r="X994" s="14"/>
-      <c r="Y994" s="14"/>
-      <c r="Z994" s="14"/>
-    </row>
-    <row r="995" ht="12.75" customHeight="1">
-      <c r="A995" s="14"/>
-      <c r="B995" s="14"/>
-      <c r="C995" s="14"/>
-      <c r="D995" s="14"/>
-      <c r="E995" s="14"/>
-      <c r="F995" s="14"/>
-      <c r="G995" s="14"/>
-      <c r="H995" s="14"/>
-      <c r="I995" s="14"/>
-      <c r="J995" s="14"/>
-      <c r="K995" s="14"/>
-      <c r="L995" s="14"/>
-      <c r="M995" s="14"/>
-      <c r="N995" s="14"/>
-      <c r="O995" s="14"/>
-      <c r="P995" s="14"/>
-      <c r="Q995" s="14"/>
-      <c r="R995" s="14"/>
-      <c r="S995" s="14"/>
-      <c r="T995" s="14"/>
-      <c r="U995" s="14"/>
-      <c r="V995" s="14"/>
-      <c r="W995" s="14"/>
-      <c r="X995" s="14"/>
-      <c r="Y995" s="14"/>
-      <c r="Z995" s="14"/>
-    </row>
-    <row r="996" ht="12.75" customHeight="1">
-      <c r="A996" s="14"/>
-      <c r="B996" s="14"/>
-      <c r="C996" s="14"/>
-      <c r="D996" s="14"/>
-      <c r="E996" s="14"/>
-      <c r="F996" s="14"/>
-      <c r="G996" s="14"/>
-      <c r="H996" s="14"/>
-      <c r="I996" s="14"/>
-      <c r="J996" s="14"/>
-      <c r="K996" s="14"/>
-      <c r="L996" s="14"/>
-      <c r="M996" s="14"/>
-      <c r="N996" s="14"/>
-      <c r="O996" s="14"/>
-      <c r="P996" s="14"/>
-      <c r="Q996" s="14"/>
-      <c r="R996" s="14"/>
-      <c r="S996" s="14"/>
-      <c r="T996" s="14"/>
-      <c r="U996" s="14"/>
-      <c r="V996" s="14"/>
-      <c r="W996" s="14"/>
-      <c r="X996" s="14"/>
-      <c r="Y996" s="14"/>
-      <c r="Z996" s="14"/>
-    </row>
-    <row r="997" ht="12.75" customHeight="1">
-      <c r="A997" s="14"/>
-      <c r="B997" s="14"/>
-      <c r="C997" s="14"/>
-      <c r="D997" s="14"/>
-      <c r="E997" s="14"/>
-      <c r="F997" s="14"/>
-      <c r="G997" s="14"/>
-      <c r="H997" s="14"/>
-      <c r="I997" s="14"/>
-      <c r="J997" s="14"/>
-      <c r="K997" s="14"/>
-      <c r="L997" s="14"/>
-      <c r="M997" s="14"/>
-      <c r="N997" s="14"/>
-      <c r="O997" s="14"/>
-      <c r="P997" s="14"/>
-      <c r="Q997" s="14"/>
-      <c r="R997" s="14"/>
-      <c r="S997" s="14"/>
-      <c r="T997" s="14"/>
-      <c r="U997" s="14"/>
-      <c r="V997" s="14"/>
-      <c r="W997" s="14"/>
-      <c r="X997" s="14"/>
-      <c r="Y997" s="14"/>
-      <c r="Z997" s="14"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="14"/>
-      <c r="B998" s="14"/>
-      <c r="C998" s="14"/>
-      <c r="D998" s="14"/>
-      <c r="E998" s="14"/>
-      <c r="F998" s="14"/>
-      <c r="G998" s="14"/>
-      <c r="H998" s="14"/>
-      <c r="I998" s="14"/>
-      <c r="J998" s="14"/>
-      <c r="K998" s="14"/>
-      <c r="L998" s="14"/>
-      <c r="M998" s="14"/>
-      <c r="N998" s="14"/>
-      <c r="O998" s="14"/>
-      <c r="P998" s="14"/>
-      <c r="Q998" s="14"/>
-      <c r="R998" s="14"/>
-      <c r="S998" s="14"/>
-      <c r="T998" s="14"/>
-      <c r="U998" s="14"/>
-      <c r="V998" s="14"/>
-      <c r="W998" s="14"/>
-      <c r="X998" s="14"/>
-      <c r="Y998" s="14"/>
-      <c r="Z998" s="14"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="14"/>
-      <c r="B999" s="14"/>
-      <c r="C999" s="14"/>
-      <c r="D999" s="14"/>
-      <c r="E999" s="14"/>
-      <c r="F999" s="14"/>
-      <c r="G999" s="14"/>
-      <c r="H999" s="14"/>
-      <c r="I999" s="14"/>
-      <c r="J999" s="14"/>
-      <c r="K999" s="14"/>
-      <c r="L999" s="14"/>
-      <c r="M999" s="14"/>
-      <c r="N999" s="14"/>
-      <c r="O999" s="14"/>
-      <c r="P999" s="14"/>
-      <c r="Q999" s="14"/>
-      <c r="R999" s="14"/>
-      <c r="S999" s="14"/>
-      <c r="T999" s="14"/>
-      <c r="U999" s="14"/>
-      <c r="V999" s="14"/>
-      <c r="W999" s="14"/>
-      <c r="X999" s="14"/>
-      <c r="Y999" s="14"/>
-      <c r="Z999" s="14"/>
-    </row>
-    <row r="1000" ht="12.75" customHeight="1">
-      <c r="A1000" s="14"/>
-      <c r="B1000" s="14"/>
-      <c r="C1000" s="14"/>
-      <c r="D1000" s="14"/>
-      <c r="E1000" s="14"/>
-      <c r="F1000" s="14"/>
-      <c r="G1000" s="14"/>
-      <c r="H1000" s="14"/>
-      <c r="I1000" s="14"/>
-      <c r="J1000" s="14"/>
-      <c r="K1000" s="14"/>
-      <c r="L1000" s="14"/>
-      <c r="M1000" s="14"/>
-      <c r="N1000" s="14"/>
-      <c r="O1000" s="14"/>
-      <c r="P1000" s="14"/>
-      <c r="Q1000" s="14"/>
-      <c r="R1000" s="14"/>
-      <c r="S1000" s="14"/>
-      <c r="T1000" s="14"/>
-      <c r="U1000" s="14"/>
-      <c r="V1000" s="14"/>
-      <c r="W1000" s="14"/>
-      <c r="X1000" s="14"/>
-      <c r="Y1000" s="14"/>
-      <c r="Z1000" s="14"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
